--- a/QuestAnalyse/resExcel/DATAUPDATES.XLSX
+++ b/QuestAnalyse/resExcel/DATAUPDATES.XLSX
@@ -2510,7 +2510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2529,156 +2529,156 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Pragmatic Quality</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Hedonic Quality</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Items</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Correlation</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Items</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Correlation</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="n">
+      <c r="D5" t="n">
         <v>1.2</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>-0.1350241366690247</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>5.6</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>0.03054215251509772</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="n">
+      <c r="D6" t="n">
         <v>1.3</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>-0.04247034498161864</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>5.7</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>0.02266787565227526</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="n">
+      <c r="D7" t="n">
         <v>1.4</v>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>-0.09825500074635549</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>5.8</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>-0.06929691855509566</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="n">
+      <c r="D8" t="n">
         <v>2.3</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>-0.1808312821619761</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>6.7</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>-0.112518717867415</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="n">
+      <c r="D9" t="n">
         <v>2.4</v>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
         <v>-0.1080594984380789</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>6.8</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>-0.1366525045683027</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="n">
+      <c r="D10" t="n">
         <v>3.4</v>
       </c>
-      <c r="C10" t="n">
+      <c r="E10" t="n">
         <v>0.05526986069917478</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>7.8</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>0.2186995398333374</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>-0.08489506704964651</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>-0.007759762165017184</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Alpha</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="E12" t="n">
         <v>-0.4556199188880535</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Alpha</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>-0.03177883731848539</v>
       </c>
     </row>
@@ -31074,14 +31074,14 @@
       <c r="D5" t="n">
         <v>41</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.624</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-1.063024390243902</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1849756097560976</v>
+      <c r="E5" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#NAME?</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -31097,14 +31097,14 @@
       <c r="L5" t="n">
         <v>41</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.288</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-0.5562926829268293</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.01970731707317069</v>
+      <c r="M5" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N5" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="O5" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6">
@@ -31120,14 +31120,14 @@
       <c r="D6" t="n">
         <v>41</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.9676829268292684</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.3823170731707318</v>
+      <c r="E6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#NAME?</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -31143,14 +31143,14 @@
       <c r="L6" t="n">
         <v>41</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.302</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-0.2471219512195122</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.3568780487804878</v>
+      <c r="M6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="O6" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7">
@@ -31166,14 +31166,14 @@
       <c r="D7" t="n">
         <v>41</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.703</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-0.9225121951219512</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.4834878048780488</v>
+      <c r="E7" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#NAME?</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -31189,14 +31189,14 @@
       <c r="L7" t="n">
         <v>41</v>
       </c>
-      <c r="M7" t="n">
-        <v>0.183</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-0.2897073170731707</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.07629268292682927</v>
+      <c r="M7" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N7" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="O7" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8">
@@ -31212,14 +31212,14 @@
       <c r="D8" t="n">
         <v>41</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-0.7789512195121951</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.5350487804878049</v>
+      <c r="E8" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9">
@@ -31235,14 +31235,14 @@
       <c r="D9" t="n">
         <v>41</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.611</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-1.245146341463415</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-0.02314634146341465</v>
+      <c r="E9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10">
@@ -31258,14 +31258,14 @@
       <c r="D10" t="n">
         <v>41</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.2572682926829268</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.401268292682927</v>
+      <c r="E10" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11">
@@ -31281,14 +31281,14 @@
       <c r="D11" t="n">
         <v>41</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.631</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.6797804878048781</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.5822195121951219</v>
+      <c r="E11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="12">
@@ -31304,14 +31304,14 @@
       <c r="D12" t="n">
         <v>41</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.540829268292683</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.687170731707317</v>
+      <c r="E12" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="F12" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="G12" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
